--- a/Tiendamcuoi.xlsx
+++ b/Tiendamcuoi.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitProjects\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A447A-539E-49B7-800E-34A1DCF3ECEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cấp 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Anh em họ hàng" sheetId="5" r:id="rId2"/>
-    <sheet name="Đại học" sheetId="3" r:id="rId3"/>
-    <sheet name="Đồng nghiệp" sheetId="4" r:id="rId4"/>
-    <sheet name="Cấp3" sheetId="2" r:id="rId5"/>
+    <sheet name="Anh em họ hàng" sheetId="5" r:id="rId1"/>
+    <sheet name="Cấp 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Cấp3" sheetId="2" r:id="rId3"/>
+    <sheet name="Đại học" sheetId="3" r:id="rId4"/>
+    <sheet name="Đồng nghiệp" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -28,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Anh Hải Phấn</t>
   </si>
@@ -157,12 +167,15 @@
   </si>
   <si>
     <t>Thiền Quyên-Phạm Yến</t>
+  </si>
+  <si>
+    <t>Anh Trọng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -471,11 +484,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B1:B23)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -678,27 +742,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>500000</v>
@@ -706,19 +774,27 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>500000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <f>SUM(B1:B23)</f>
-        <v>1200000</v>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>
@@ -726,12 +802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,16 +819,25 @@
       <c r="A1" t="s">
         <v>34</v>
       </c>
+      <c r="B1">
+        <v>300000</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -773,7 +858,7 @@
       </c>
       <c r="B16">
         <f>SUM(B1:B10)</f>
-        <v>500000</v>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
@@ -781,12 +866,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,50 +942,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B1:B14)</f>
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tiendamcuoi.xlsx
+++ b/Tiendamcuoi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitProjects\PersonalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A447A-539E-49B7-800E-34A1DCF3ECEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8063601-863C-4377-919D-3A1242726D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anh em họ hàng" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Anh Hải Phấn</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>Anh Trọng</t>
+  </si>
+  <si>
+    <t>Đức(FPT)</t>
+  </si>
+  <si>
+    <t>Tuấn Anh (MOnkey)</t>
+  </si>
+  <si>
+    <t>Thủy(Monkey)</t>
+  </si>
+  <si>
+    <t>Trường Nhung</t>
+  </si>
+  <si>
+    <t>Lịch Tời</t>
+  </si>
+  <si>
+    <t>Anh Cường(Bác Bộc)</t>
+  </si>
+  <si>
+    <t>Anh Cao()</t>
   </si>
 </sst>
 </file>
@@ -488,15 +509,15 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +525,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +533,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -520,13 +541,29 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>1200000</v>
+        <v>2700000</v>
       </c>
     </row>
   </sheetData>
@@ -538,17 +575,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -556,7 +593,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -564,7 +601,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -572,7 +609,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -580,7 +617,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -588,7 +625,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,17 +633,17 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -614,7 +651,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -622,7 +659,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -630,7 +667,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -638,12 +675,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -651,7 +688,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -659,7 +696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -667,7 +704,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -675,7 +712,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -683,7 +720,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -691,7 +728,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -699,7 +736,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -707,7 +744,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -715,7 +752,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -723,7 +760,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -746,17 +783,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -764,7 +801,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -772,7 +809,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -780,7 +817,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -788,13 +825,29 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>
@@ -807,15 +860,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -823,7 +877,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -831,7 +885,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -839,7 +893,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -847,18 +901,36 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16">
         <f>SUM(B1:B10)</f>
-        <v>1800000</v>
+        <v>2300000</v>
       </c>
     </row>
   </sheetData>
@@ -868,19 +940,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -888,7 +960,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -896,7 +968,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -904,7 +976,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -912,31 +984,37 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <f>SUM(B1:B12)</f>
-        <v>2300000</v>
+      <c r="B17">
+        <f>SUM(B1:B16)</f>
+        <v>2900000</v>
       </c>
     </row>
   </sheetData>

--- a/Tiendamcuoi.xlsx
+++ b/Tiendamcuoi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitProjects\PersonalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GitProjects\PersonalData\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A447A-539E-49B7-800E-34A1DCF3ECEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F26625B-531E-4792-AE9B-554ABC925C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anh em họ hàng" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Anh Hải Phấn</t>
   </si>
@@ -160,35 +160,233 @@
     <t>x</t>
   </si>
   <si>
-    <t>Trung Nguyễn</t>
-  </si>
-  <si>
     <t>Chiên Xù</t>
   </si>
   <si>
-    <t>Thiền Quyên-Phạm Yến</t>
-  </si>
-  <si>
     <t>Anh Trọng</t>
+  </si>
+  <si>
+    <t>Trường Nhung</t>
+  </si>
+  <si>
+    <t>Lịch Tời</t>
+  </si>
+  <si>
+    <t>Thiền Quyên</t>
+  </si>
+  <si>
+    <t>Anh Cường Ngọc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được mừng lại </t>
+  </si>
+  <si>
+    <t>Đã mừng</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Em Giang</t>
+  </si>
+  <si>
+    <t>Em Thảo</t>
+  </si>
+  <si>
+    <t>Em Nam</t>
+  </si>
+  <si>
+    <t>Cầm Hùng</t>
+  </si>
+  <si>
+    <t>Quang Nết</t>
+  </si>
+  <si>
+    <t>Hanh Mấn</t>
+  </si>
+  <si>
+    <t>Định  Năm</t>
+  </si>
+  <si>
+    <t>Đức Thống</t>
+  </si>
+  <si>
+    <t>Cường Hiền</t>
+  </si>
+  <si>
+    <t>Cường Vịnh</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Trương Cường</t>
+  </si>
+  <si>
+    <t>Tú Túy</t>
+  </si>
+  <si>
+    <t>Việt Hòa</t>
+  </si>
+  <si>
+    <t>Em Hùng</t>
+  </si>
+  <si>
+    <t>Em Khánh</t>
+  </si>
+  <si>
+    <t>Anh Huy</t>
+  </si>
+  <si>
+    <t>Anh Uần</t>
+  </si>
+  <si>
+    <t>Anh Úy</t>
+  </si>
+  <si>
+    <t>Anh Cường</t>
+  </si>
+  <si>
+    <t>Chị Hương</t>
+  </si>
+  <si>
+    <t>Chị Giang</t>
+  </si>
+  <si>
+    <t>Mạnh Lã</t>
+  </si>
+  <si>
+    <t>Lan đù</t>
+  </si>
+  <si>
+    <t>Chị Hòa</t>
+  </si>
+  <si>
+    <t>Anh Yên</t>
+  </si>
+  <si>
+    <t>Em Trung Phấn (x)</t>
+  </si>
+  <si>
+    <t>Quý Kiên</t>
+  </si>
+  <si>
+    <t>Thương k58</t>
+  </si>
+  <si>
+    <t>Thầy Thanh</t>
+  </si>
+  <si>
+    <t>Thầy Tuấn</t>
+  </si>
+  <si>
+    <t>Đức(FPT)</t>
+  </si>
+  <si>
+    <t>Anh Tới(FPT)</t>
+  </si>
+  <si>
+    <t>Tuấn (FPT)</t>
+  </si>
+  <si>
+    <t>Vũ (FPT)</t>
+  </si>
+  <si>
+    <t>Kiên(FPT)</t>
+  </si>
+  <si>
+    <t>Cường(FPT)</t>
+  </si>
+  <si>
+    <t>Đạo(Monkey)</t>
+  </si>
+  <si>
+    <t>Phước(Monkey)</t>
+  </si>
+  <si>
+    <t>Cường(Monkey)</t>
+  </si>
+  <si>
+    <t>Tuấn Anh(Monkey)</t>
+  </si>
+  <si>
+    <t>Thủy(Monkey)</t>
+  </si>
+  <si>
+    <t>Nhân(Monkey)</t>
+  </si>
+  <si>
+    <t>Kiên(Monkey)</t>
+  </si>
+  <si>
+    <t>Lan(Vnet)</t>
+  </si>
+  <si>
+    <t>Kế Anh(Vnet)</t>
+  </si>
+  <si>
+    <t>Đạt(Vnet)</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung</t>
+  </si>
+  <si>
+    <t>Tuấn Anh(Vnet)</t>
+  </si>
+  <si>
+    <t>Mỹ(Monkey)</t>
+  </si>
+  <si>
+    <t>Hà(Monkey)</t>
+  </si>
+  <si>
+    <t>Thắng Nguyễn (Monkey)</t>
+  </si>
+  <si>
+    <t>Hải (Backend Monkey)</t>
+  </si>
+  <si>
+    <t>Chị Hà (Vnet)</t>
+  </si>
+  <si>
+    <t>Đạt(Monkey)</t>
+  </si>
+  <si>
+    <t>Thắng Vũ(Monkey)</t>
+  </si>
+  <si>
+    <t>Long béo (x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,8 +401,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,47 +690,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>500000</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <f>SUM(B1:B23)</f>
+      <c r="B45">
+        <f>SUM(B2:B44)</f>
         <v>1200000</v>
       </c>
     </row>
@@ -536,140 +838,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>200000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>200000</v>
@@ -677,7 +984,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>200000</v>
@@ -685,7 +992,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>200000</v>
@@ -693,7 +1000,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>200000</v>
@@ -701,7 +1008,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>200000</v>
@@ -709,7 +1016,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>200000</v>
@@ -717,18 +1024,26 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B24">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B41">
-        <f>SUM( B1:B35)</f>
+      <c r="B42">
+        <f>SUM( B2:B36)</f>
         <v>3800000</v>
       </c>
     </row>
@@ -744,57 +1059,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
       </c>
       <c r="B2">
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <f>SUM(B1:B14)</f>
-        <v>2000000</v>
+      <c r="B22">
+        <f>SUM(B2:B18)</f>
+        <v>3000000</v>
       </c>
     </row>
   </sheetData>
@@ -804,61 +1207,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B1">
+      <c r="B4" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
+      <c r="B5" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B3">
+      <c r="B6" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B7" s="3">
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <f>SUM(B1:B10)</f>
-        <v>1800000</v>
+      <c r="B18" s="3">
+        <f>SUM(B4:B12)</f>
+        <v>2300000</v>
       </c>
     </row>
   </sheetData>
@@ -868,74 +1322,191 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>30</v>
-      </c>
-      <c r="B1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
       </c>
       <c r="B2">
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <f>SUM(B1:B12)</f>
+      <c r="B36">
+        <f>SUM(B2:B35)</f>
         <v>2300000</v>
       </c>
     </row>

--- a/Tiendamcuoi.xlsx
+++ b/Tiendamcuoi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GitProjects\PersonalData\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F26625B-531E-4792-AE9B-554ABC925C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135AEA7F-9C3E-4CCA-A0E6-D2BE71E0C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anh em họ hàng" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Cấp3" sheetId="2" r:id="rId3"/>
     <sheet name="Đại học" sheetId="3" r:id="rId4"/>
     <sheet name="Đồng nghiệp" sheetId="4" r:id="rId5"/>
+    <sheet name="Em" sheetId="8" r:id="rId6"/>
+    <sheet name="Tổng" sheetId="6" r:id="rId7"/>
+    <sheet name="Vợ" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
   <si>
     <t>Anh Hải Phấn</t>
   </si>
@@ -100,9 +103,6 @@
     <t>Kiều Vực</t>
   </si>
   <si>
-    <t>Hải Huy</t>
-  </si>
-  <si>
     <t>Hồng Cử</t>
   </si>
   <si>
@@ -136,9 +136,6 @@
     <t>Anh Tiến VV(FPT)</t>
   </si>
   <si>
-    <t>Anh Phương (VTI)</t>
-  </si>
-  <si>
     <t>Anh Đạt (FPT)</t>
   </si>
   <si>
@@ -187,12 +184,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Em Giang</t>
-  </si>
-  <si>
-    <t>Em Thảo</t>
-  </si>
-  <si>
     <t>Em Nam</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>Em Hùng</t>
   </si>
   <si>
-    <t>Em Khánh</t>
-  </si>
-  <si>
     <t>Anh Huy</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
     <t>Anh Yên</t>
   </si>
   <si>
-    <t>Em Trung Phấn (x)</t>
-  </si>
-  <si>
     <t>Quý Kiên</t>
   </si>
   <si>
@@ -286,18 +271,9 @@
     <t>Anh Tới(FPT)</t>
   </si>
   <si>
-    <t>Tuấn (FPT)</t>
-  </si>
-  <si>
     <t>Vũ (FPT)</t>
   </si>
   <si>
-    <t>Kiên(FPT)</t>
-  </si>
-  <si>
-    <t>Cường(FPT)</t>
-  </si>
-  <si>
     <t>Đạo(Monkey)</t>
   </si>
   <si>
@@ -325,15 +301,9 @@
     <t>Kế Anh(Vnet)</t>
   </si>
   <si>
-    <t>Đạt(Vnet)</t>
-  </si>
-  <si>
     <t>Nguyễn Trung</t>
   </si>
   <si>
-    <t>Tuấn Anh(Vnet)</t>
-  </si>
-  <si>
     <t>Mỹ(Monkey)</t>
   </si>
   <si>
@@ -343,19 +313,193 @@
     <t>Thắng Nguyễn (Monkey)</t>
   </si>
   <si>
-    <t>Hải (Backend Monkey)</t>
-  </si>
-  <si>
-    <t>Chị Hà (Vnet)</t>
-  </si>
-  <si>
-    <t>Đạt(Monkey)</t>
-  </si>
-  <si>
-    <t>Thắng Vũ(Monkey)</t>
-  </si>
-  <si>
-    <t>Long béo (x)</t>
+    <t>Em Anh</t>
+  </si>
+  <si>
+    <t>Anh Tuyền</t>
+  </si>
+  <si>
+    <t>Anh Duẩn, chị Hằng</t>
+  </si>
+  <si>
+    <t>Hương Cường</t>
+  </si>
+  <si>
+    <t>Huyền sầm</t>
+  </si>
+  <si>
+    <t>Em oanh Mười</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Tiến Chú Vượng</t>
+  </si>
+  <si>
+    <t>Hiều, Hoàn, Hạnh</t>
+  </si>
+  <si>
+    <t>Em Huyền</t>
+  </si>
+  <si>
+    <t>Em Thảo, Lễ</t>
+  </si>
+  <si>
+    <t>Em Như</t>
+  </si>
+  <si>
+    <t>Mai, Quang chú Thịnh</t>
+  </si>
+  <si>
+    <t>Anh Cường k55</t>
+  </si>
+  <si>
+    <t>Trung Anh</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Tiến Đậu</t>
+  </si>
+  <si>
+    <t>Em Chung Phấn (x)</t>
+  </si>
+  <si>
+    <t>Hải Bi</t>
+  </si>
+  <si>
+    <t>Thành Gầy</t>
+  </si>
+  <si>
+    <t>Đã gọi</t>
+  </si>
+  <si>
+    <t>Bê tráp</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Bop(Việt Anh)</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>Đã mời</t>
+  </si>
+  <si>
+    <t>Ngân(Ny Khánh)</t>
+  </si>
+  <si>
+    <t>Em Giang, Thùy</t>
+  </si>
+  <si>
+    <t>Không bê được</t>
+  </si>
+  <si>
+    <t>Sơn(Monkey)</t>
+  </si>
+  <si>
+    <t>Chưa gọi được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trùng ngày cưới, ko đi đc </t>
+  </si>
+  <si>
+    <t>Thắng Vũ</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thuỳ An, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Đại, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hoàng Duy, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Vũ Linh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Kim Nghĩa, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Thị Mai Anh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thị Trang, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thanh Tùng, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Quang Huy, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Quyên, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lương Thị Mai Phương, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Liên, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Thị Thương, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Anh Quân, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Quang Chúc, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Trọng Dương, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Biên, </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Công</t>
+  </si>
+  <si>
+    <t>Đông nghiệp, bàn bè</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>Thạch, Vinh</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>Lễ</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>6 bạn khánh</t>
+  </si>
+  <si>
+    <t>Tấn</t>
+  </si>
+  <si>
+    <t>Ở nước ngoài, ko đi đc</t>
   </si>
 </sst>
 </file>
@@ -690,145 +834,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>500000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45">
-        <f>SUM(B2:B44)</f>
-        <v>1200000</v>
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <f>SUM(B2:B45)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -838,32 +1072,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -871,7 +1108,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -879,7 +1116,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -887,7 +1124,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -895,7 +1132,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -903,7 +1140,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -911,17 +1148,20 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -929,7 +1169,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -937,46 +1177,38 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>200000</v>
@@ -984,7 +1216,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>200000</v>
@@ -992,7 +1224,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>200000</v>
@@ -1000,7 +1232,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>200000</v>
@@ -1008,7 +1240,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>200000</v>
@@ -1016,7 +1248,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>200000</v>
@@ -1024,7 +1256,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>200000</v>
@@ -1032,7 +1264,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>200000</v>
@@ -1040,7 +1272,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <f>SUM( B2:B36)</f>
@@ -1062,7 +1294,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,13 +1306,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,7 +1325,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>500000</v>
@@ -1101,7 +1333,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>500000</v>
@@ -1109,7 +1341,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>500000</v>
@@ -1117,7 +1349,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>500000</v>
@@ -1125,7 +1357,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>500000</v>
@@ -1133,67 +1365,78 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B18)</f>
@@ -1207,111 +1450,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3">
-        <f>SUM(B4:B12)</f>
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
+        <f>SUM(B5:B13)</f>
         <v>2300000</v>
       </c>
     </row>
@@ -1322,192 +1620,566 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>500000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>500000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>300000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>300000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>200000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <f>SUM(B2:B55)</f>
+        <v>2800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC448E-548B-4083-B39A-E47D1C0F64CF}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6789AC7-C186-49E8-BEC3-CEC839D5380B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D371C58F-EA2B-42EE-AD3D-41DF60CD452B}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <f>SUM(B2:B35)</f>
-        <v>2300000</v>
       </c>
     </row>
   </sheetData>

--- a/Tiendamcuoi.xlsx
+++ b/Tiendamcuoi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Glacio\Desktop\Thiepmoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576721A7-58B7-4CAE-9D76-80EE80654F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9A168-DB91-4668-86EA-6407FB64BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gia đình" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
   <si>
     <t>Anh Hải Phấn</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Em Như</t>
   </si>
   <si>
-    <t>Anh Cường k55</t>
-  </si>
-  <si>
     <t>Hiếu</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
   </si>
   <si>
     <t>Em</t>
-  </si>
-  <si>
-    <t>Thạch, Vinh</t>
   </si>
   <si>
     <t>Tấn</t>
@@ -506,12 +500,6 @@
   </si>
   <si>
     <t>0.5 chỉ nhẫn</t>
-  </si>
-  <si>
-    <t>dì xuàn 1</t>
-  </si>
-  <si>
-    <t>anh cao chị nhung</t>
   </si>
   <si>
     <t>Tiến Tĩnh</t>
@@ -860,114 +848,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0D688F-A32E-41DB-B987-154E5604FECA}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -980,20 +966,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1004,10 +990,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1018,22 +1004,22 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1041,7 +1027,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1049,17 +1035,17 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1067,13 +1053,13 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1084,7 +1070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1092,9 +1078,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>500000</v>
@@ -1103,9 +1089,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16">
         <v>500000</v>
@@ -1114,22 +1100,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>500000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19">
         <v>500000</v>
@@ -1140,27 +1121,18 @@
       <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>1500000</v>
@@ -1169,7 +1141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1177,7 +1149,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1188,7 +1160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1196,7 +1168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1204,22 +1176,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26">
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>SUM(C2:C27)</f>
         <v>8800000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1240,19 +1212,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1263,10 +1235,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1249,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1260,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1271,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1282,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1293,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1329,12 +1301,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1317,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1328,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1339,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1347,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +1358,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1397,15 +1369,15 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1388,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1399,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1410,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1449,9 +1421,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>200000</v>
@@ -1460,7 +1432,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1443,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1454,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1493,9 +1465,9 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24">
         <v>200000</v>
@@ -1504,9 +1476,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25">
         <v>200000</v>
@@ -1515,7 +1487,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1543,17 +1515,17 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1564,10 +1536,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1550,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1561,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1572,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1611,7 +1583,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1591,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1630,7 +1602,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1638,15 +1610,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
+      <c r="B9">
+        <v>500000</v>
+      </c>
       <c r="C9">
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1654,15 +1629,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
+      <c r="B11">
+        <v>500000</v>
+      </c>
       <c r="C11">
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1670,7 +1648,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1656,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1686,15 +1664,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
+      <c r="B15">
+        <v>500000</v>
+      </c>
       <c r="C15">
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1705,9 +1686,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>300000</v>
@@ -1716,23 +1697,23 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>500000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <f>SUM(B2:B16)</f>
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="C20">
         <f>SUM(C2:C18)</f>
@@ -1749,17 +1730,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1770,10 +1751,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1787,10 +1768,10 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +1799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1843,7 +1824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1871,10 +1852,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1885,29 +1866,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="3">
-        <v>500000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
       <c r="C16" s="3">
         <v>500000</v>
       </c>
@@ -1915,7 +1891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1937,18 +1913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1959,10 +1935,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +1952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +1966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +1974,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2009,7 +1985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2023,7 +1999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2034,9 +2010,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8">
         <v>500000</v>
@@ -2045,7 +2021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2056,7 +2032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -2067,7 +2043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2078,7 +2054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2089,7 +2065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2103,7 +2079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2114,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2125,7 +2101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2136,7 +2112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2144,7 +2120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2152,29 +2128,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>300000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
-      <c r="C21">
-        <v>300000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
       <c r="C22">
         <v>500000</v>
       </c>
@@ -2182,7 +2158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2193,7 +2169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2204,9 +2180,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>300000</v>
@@ -2215,193 +2191,193 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>500000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>103</v>
       </c>
-      <c r="C29">
-        <v>500000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30">
+        <v>300000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="C30">
-        <v>300000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31">
+        <v>500000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-      <c r="C31">
-        <v>500000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33">
+        <v>500000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="C33">
-        <v>500000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34">
+        <v>300000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>108</v>
       </c>
-      <c r="C34">
-        <v>300000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>300000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="C35">
-        <v>300000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36">
+        <v>500000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="C36">
-        <v>500000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37">
+        <v>500000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>111</v>
       </c>
-      <c r="C37">
-        <v>500000</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38">
+        <v>300000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>112</v>
       </c>
-      <c r="C38">
-        <v>300000</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39">
+        <v>300000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>113</v>
       </c>
-      <c r="C39">
-        <v>300000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40">
+        <v>300000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="C40">
-        <v>300000</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41">
+        <v>500000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>115</v>
       </c>
-      <c r="C41">
-        <v>500000</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C43">
+        <v>500000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="C43">
-        <v>500000</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44">
+        <v>300000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>118</v>
       </c>
-      <c r="C44">
-        <v>300000</v>
-      </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>119</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>120</v>
-      </c>
       <c r="D46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2409,9 +2385,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>300000</v>
@@ -2420,7 +2396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2458,17 +2434,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2479,12 +2455,12 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>200000</v>
@@ -2493,9 +2469,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>500000</v>
@@ -2514,31 +2490,31 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f xml:space="preserve"> 7800000+ 6400000+7300000+4800000+12400000 + 700000</f>
         <v>39400000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>2.3+36.4</f>
         <v>38.699999999999996</v>
@@ -2555,34 +2531,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
